--- a/Dados/28_mar.xlsx
+++ b/Dados/28_mar.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,86 +367,98 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>aruja</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>barueri</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>municipio</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Casos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Óbitos</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>diadema</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -444,66 +469,66 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>diadema</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -514,7 +539,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -525,7 +550,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -536,7 +561,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -547,18 +572,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -569,73 +594,73 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -646,7 +671,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -657,7 +682,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -668,20 +693,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -692,143 +715,143 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1149</v>
-      </c>
-      <c r="C38" t="n">
-        <v>76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sao pedro</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>1149</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>sao pedro</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -841,7 +864,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -852,18 +875,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -874,13 +899,35 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>taubate</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>valinhos</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>vargem grande paulista</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>2</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Dados/28_mar.xlsx
+++ b/Dados/28_mar.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,149 +386,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>municipio</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Casos</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Óbitos</t>
-        </is>
-      </c>
+          <t>aruja</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>diadema</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>diadema</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -539,7 +533,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -550,7 +544,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -561,7 +555,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -572,7 +566,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -583,40 +577,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -627,40 +621,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -671,7 +665,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -682,7 +676,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -693,7 +687,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -704,191 +698,191 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>1149</v>
+      </c>
+      <c r="C39" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao pedro</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1149</v>
-      </c>
-      <c r="C40" t="n">
-        <v>76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sao pedro</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -899,7 +893,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -910,24 +904,13 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vargem grande paulista</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
         <v>2</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C48" t="n">
         <v>1</v>
       </c>
     </row>
